--- a/Time recording log.xlsx
+++ b/Time recording log.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iljaf\OneDrive\Documents\TTU\2 semester\Infosusteemide arendamine II\ISA2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90963FAE-A35D-40E9-BAC3-8B17A37EC02B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B737F0C3-8204-468A-8E14-AC2660DD0DCD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Nädal 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Nädal 6" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -84,7 +85,10 @@
     <t>HW</t>
   </si>
   <si>
-    <t>js</t>
+    <t>practika</t>
+  </si>
+  <si>
+    <t>MVC 1</t>
   </si>
 </sst>
 </file>
@@ -441,29 +445,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -473,20 +472,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -516,7 +513,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -534,7 +531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -863,7 +860,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -873,7 +870,7 @@
     <col min="3" max="3" width="6.54296875" style="2" customWidth="1"/>
     <col min="4" max="4" width="6.7265625" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.54296875" customWidth="1"/>
-    <col min="6" max="6" width="6.54296875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="6.54296875" customWidth="1"/>
     <col min="8" max="8" width="28.26953125" customWidth="1"/>
     <col min="9" max="9" width="3.453125" customWidth="1"/>
     <col min="10" max="10" width="3.26953125" customWidth="1"/>
@@ -881,351 +878,353 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="41"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="12" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="38">
+        <v>43521</v>
+      </c>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="39"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="42"/>
+    </row>
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="14">
+        <v>1</v>
+      </c>
+      <c r="B7" s="15">
         <v>43514</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="44"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="47"/>
-    </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="17">
-        <v>1</v>
-      </c>
-      <c r="B7" s="18">
-        <v>43507</v>
-      </c>
-      <c r="C7" s="19">
+      <c r="C7" s="16">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="16">
         <v>0.72916666666666663</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21">
+      <c r="E7" s="17"/>
+      <c r="F7" s="17">
         <f>(D7-C7)*24*60 - E7</f>
         <v>90</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="22"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
+      <c r="A8" s="7">
         <v>2</v>
       </c>
-      <c r="B8" s="7">
-        <v>43513</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0.625</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="B8" s="5">
+        <v>43518</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <f t="shared" ref="F8:F18" si="0">(D8-C8)*24*60 - E8</f>
+        <v>180</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5">
+        <v>43514</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="6">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5">
-        <f t="shared" ref="F8:F18" si="0">(D8-C8)*24*60 - E8</f>
-        <v>419.99999999999994</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>239.99999999999994</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
-        <v>3</v>
-      </c>
-      <c r="B9" s="7">
-        <v>43514</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5">
-        <f t="shared" si="0"/>
-        <v>179.99999999999991</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="10"/>
+      <c r="H9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="9">
+      <c r="A10" s="7">
         <v>4</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5">
+      <c r="B10" s="5">
+        <v>43520</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
         <f t="shared" si="0"/>
         <v>240.00000000000011</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="10"/>
+      <c r="H10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="9">
+      <c r="A11" s="7">
         <v>5</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="10"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="9">
+      <c r="A12" s="7">
         <v>6</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="10"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
+      <c r="A13" s="7">
         <v>7</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="10"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="9">
+      <c r="A14" s="7">
         <v>8</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="10"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
+      <c r="A15" s="7">
         <v>9</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="10"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="9">
+      <c r="A16" s="7">
         <v>10</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="10"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
+      <c r="A17" s="7">
         <v>11</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="10"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="23">
+      <c r="A18" s="19">
         <v>12</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="11">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="27"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="22"/>
     </row>
     <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="30">
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="25">
         <f>SUM(F7:F18)</f>
-        <v>930</v>
-      </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="29"/>
+        <v>750</v>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1240,4 +1239,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0AAC10E-F97A-4255-AFC2-366636A76E8D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>